--- a/puts_dol_gammas.xlsx
+++ b/puts_dol_gammas.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-29" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPY230628P00380000</t>
+          <t>SPY230629P00380000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2500075</v>
+        <v>0.5937540625000001</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPY230628P00390000</t>
+          <t>SPY230629P00390000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,13 +618,13 @@
         <v>390</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2500075</v>
+        <v>0.500005</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPY230628P00400000</t>
+          <t>SPY230629P00400000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -687,28 +687,28 @@
         <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2500075</v>
+        <v>0.414068359375</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -748,34 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPY230628P00404000</t>
+          <t>SPY230629P00410000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.02</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>515</v>
+      </c>
       <c r="L5" t="n">
-        <v>0.12500875</v>
+        <v>0.32813171875</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -803,9 +805,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
+        <v>-0.003</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -813,34 +817,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPY230628P00406000</t>
+          <t>SPY230629P00420000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11785</v>
+      </c>
       <c r="L6" t="n">
-        <v>0.12500875</v>
+        <v>0.210945390625</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -868,9 +874,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
+        <v>-0.004</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -878,34 +886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPY230628P00408000</t>
+          <t>SPY230629P00424000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-66.66667</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>1233</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1599</v>
+      </c>
       <c r="L7" t="n">
-        <v>0.12500875</v>
+        <v>0.16211775390625</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -921,10 +931,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -933,9 +943,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
+        <v>-0.004</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-69673.19459838867</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -943,36 +955,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPY230628P00410000</t>
+          <t>SPY230629P00426000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="E8" t="n">
         <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J8" t="n">
-        <v>148</v>
+        <v>3213</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.12500875</v>
+        <v>0.145516357421875</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -988,22 +1000,22 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-146361.6389343262</v>
       </c>
     </row>
     <row r="9">
@@ -1012,32 +1024,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPY230628P00412000</t>
+          <t>SPY230629P00428000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.04</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.060000002</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-66.66667</v>
       </c>
       <c r="J9" t="n">
-        <v>124</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>5373</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4292</v>
+      </c>
       <c r="L9" t="n">
         <v>0.12500875</v>
       </c>
@@ -1055,21 +1069,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
+        <v>-0.013</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-561045.6870849609</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1077,34 +1093,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPY230628P00414000</t>
+          <t>SPY230629P00429000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="E10" t="n">
         <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-54.545456</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>3068</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4485</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.12500875</v>
+        <v>0.11524322265625</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1120,21 +1138,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
+        <v>-0.017</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-977124.0705871582</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1142,34 +1162,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPY230628P00416000</t>
+          <t>SPY230629P00430000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>22011</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32531</v>
+      </c>
       <c r="L11" t="n">
-        <v>0.12500875</v>
+        <v>0.1079190771484375</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1185,21 +1207,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
+        <v>-0.029</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-14174726.0380249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1207,34 +1231,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPY230628P00418000</t>
+          <t>SPY230629P00431000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.09999999399999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-52.631577</v>
       </c>
       <c r="J12" t="n">
-        <v>111</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>26320</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5431</v>
+      </c>
       <c r="L12" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.1001066552734375</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1250,21 +1276,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.018</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="inlineStr"/>
+        <v>-0.048</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-4496252.206011963</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1272,36 +1300,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPY230628P00420000</t>
+          <t>SPY230629P00432000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0.120000005</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-42.857143</v>
       </c>
       <c r="J13" t="n">
-        <v>1107</v>
+        <v>39366</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7048</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.09620044433593751</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1317,22 +1345,22 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0.042</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0.095</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-12591196.80844727</v>
       </c>
     </row>
     <row r="14">
@@ -1341,34 +1369,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPY230628P00422000</t>
+          <t>SPY230629P00433000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0.13999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-31.818178</v>
       </c>
       <c r="J14" t="n">
-        <v>523</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>50020</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9346</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.09497975341796877</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1384,21 +1414,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0.099</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
+        <v>-0.182</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-32578645.48925781</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1406,64 +1438,68 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPY230628P00424000</t>
+          <t>SPY230629P00434000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.120000005</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-18.181818</v>
+      </c>
+      <c r="J15" t="n">
+        <v>92254</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6820</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.09632251342773437</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.13</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1248</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
+        <v>-0.302</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-38631803.83422852</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1471,36 +1507,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPY230628P00426000</t>
+          <t>SPY230629P00435000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.08000003999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-8.163270000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>1719</v>
+        <v>152743</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0312596875</v>
+        <v>0.09571216796875001</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1516,22 +1552,22 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0.386</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-50249405.98344728</v>
       </c>
     </row>
     <row r="17">
@@ -1540,39 +1576,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPY230628P00427000</t>
+          <t>SPY230629P00436000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>0.31</v>
+        <v>1.39</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.01999998</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.4184383</v>
       </c>
       <c r="J17" t="n">
-        <v>1493</v>
+        <v>86099</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4961</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0312596875</v>
+        <v>0.09790941162109376</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1585,22 +1621,22 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0.539</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-0.409</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-38477468.34000244</v>
       </c>
     </row>
     <row r="18">
@@ -1609,39 +1645,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPY230628P00428000</t>
+          <t>SPY230629P00437000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43</v>
+        <v>2.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.03999996</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.0304549</v>
       </c>
       <c r="J18" t="n">
-        <v>2383</v>
+        <v>34886</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6099</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0312596875</v>
+        <v>0.1040128662109375</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1654,22 +1690,22 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0.696</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-0.371</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>-39331237.30495606</v>
       </c>
     </row>
     <row r="19">
@@ -1678,39 +1714,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPY230628P00429000</t>
+          <t>SPY230629P00438000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.57</v>
+        <v>2.89</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.24000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.056603000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3116</v>
+        <v>6318</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3644</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0312596875</v>
+        <v>0.1115811499023437</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1723,22 +1759,22 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-0.297</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-17148233.32119141</v>
       </c>
     </row>
     <row r="20">
@@ -1747,39 +1783,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPY230628P00430000</t>
+          <t>SPY230629P00439000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.77</v>
+        <v>3.75</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.3399999</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.970672</v>
       </c>
       <c r="J20" t="n">
-        <v>12674</v>
+        <v>1613</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01563484375</v>
+        <v>0.1355066918945313</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1792,22 +1828,22 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-0.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-0.307</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-12169933.24035645</v>
       </c>
     </row>
     <row r="21">
@@ -1816,39 +1852,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPY230628P00431000</t>
+          <t>SPY230629P00440000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>1.02</v>
+        <v>4.82</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.093022</v>
       </c>
       <c r="J21" t="n">
-        <v>5333</v>
+        <v>690</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01563484375</v>
+        <v>0.1579674047851563</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1861,22 +1897,22 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-0.877</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>-0.011</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>-675904.0616699219</v>
       </c>
     </row>
     <row r="22">
@@ -1885,39 +1921,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPY230628P00432000</t>
+          <t>SPY230629P00441000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>1.35</v>
+        <v>5.68</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.42999983</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.190474</v>
       </c>
       <c r="J22" t="n">
-        <v>10318</v>
+        <v>93</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007822421875000001</v>
+        <v>0.1794515649414062</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1930,22 +1966,22 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-0.897</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-0.011</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1056383.320727539</v>
       </c>
     </row>
     <row r="23">
@@ -1954,39 +1990,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPY230628P00433000</t>
+          <t>SPY230629P00442000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>1.79</v>
+        <v>6.62</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.52999973</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.702786</v>
       </c>
       <c r="J23" t="n">
-        <v>12533</v>
+        <v>134</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00196310546875</v>
+        <v>0.2014240014648437</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1999,22 +2035,22 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-0.91</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-0.011</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-0.316</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-16775.59719848633</v>
       </c>
     </row>
     <row r="24">
@@ -2023,36 +2059,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPY230628P00434000</t>
+          <t>SPY230629P00443000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E24" t="n">
-        <v>2.3</v>
+        <v>7.31</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.82</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.5900001499999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.779764</v>
       </c>
       <c r="J24" t="n">
-        <v>19032</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>1e-05</v>
+        <v>0.2163164306640625</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -2068,22 +2104,22 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>-0.926</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T24" t="n">
-        <v>0.062</v>
+        <v>-0.287</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>-2440.086865234375</v>
       </c>
     </row>
     <row r="25">
@@ -2092,36 +2128,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPY230628P00435000</t>
+          <t>SPY230629P00444000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E25" t="n">
-        <v>2.94</v>
+        <v>8.67</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.9200001</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.870969</v>
       </c>
       <c r="J25" t="n">
-        <v>12859</v>
+        <v>74</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1e-05</v>
+        <v>0.2299881689453125</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2137,22 +2173,22 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-1</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T25" t="n">
-        <v>0.063</v>
+        <v>-0.256</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-10021.78533935547</v>
       </c>
     </row>
     <row r="26">
@@ -2161,36 +2197,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPY230628P00436000</t>
+          <t>SPY230629P00445000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E26" t="n">
-        <v>3.59</v>
+        <v>9.09</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.11000061</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.2249511</v>
       </c>
       <c r="J26" t="n">
-        <v>3018</v>
+        <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1e-05</v>
+        <v>0.258796474609375</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -2206,22 +2242,22 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-1</v>
+        <v>-0.9379999999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T26" t="n">
-        <v>0.063</v>
+        <v>-0.3</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-915.0325744628907</v>
       </c>
     </row>
     <row r="27">
@@ -2230,21 +2266,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPY230628P00437000</t>
+          <t>SPY230629P00446000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E27" t="n">
-        <v>4.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2253,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2290</v>
+        <v>4179</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1e-05</v>
+        <v>0.2832102929687499</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2275,22 +2311,22 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T27" t="n">
-        <v>0.063</v>
+        <v>-0.323</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>-784.3136352539062</v>
       </c>
     </row>
     <row r="28">
@@ -2299,21 +2335,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPY230628P00438000</t>
+          <t>SPY230629P00447000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>12.46</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2322,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1e-05</v>
+        <v>0.2956613403320312</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2344,22 +2380,22 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>-1</v>
+        <v>-0.949</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T28" t="n">
-        <v>0.063</v>
+        <v>-0.292</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29">
@@ -2368,21 +2404,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPY230628P00439000</t>
+          <t>SPY230629P00448000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E29" t="n">
-        <v>5.7</v>
+        <v>15.88</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>12.63</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2391,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1e-05</v>
+        <v>0.3137275659179687</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -2413,22 +2449,22 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>-0.953</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T29" t="n">
-        <v>0.063</v>
+        <v>-0.289</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -2437,36 +2473,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPY230628P00440000</t>
+          <t>SPY230629P00450000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E30" t="n">
-        <v>6.95</v>
+        <v>15.05</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.4000006</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.256415</v>
       </c>
       <c r="J30" t="n">
-        <v>352</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>1e-05</v>
+        <v>0.3503482934570312</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -2482,22 +2518,22 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-1</v>
+        <v>-0.959</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T30" t="n">
-        <v>0.063</v>
+        <v>-0.287</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>-958.6055541992187</v>
       </c>
     </row>
     <row r="31">
@@ -2506,27 +2542,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPY230628P00441000</t>
+          <t>SPY230629P00470000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="E31" t="n">
-        <v>7.6</v>
+        <v>34.42</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>34.61</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>34.86</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-0.5600014</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.6009188</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -2535,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1e-05</v>
+        <v>0.6303747900390625</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2551,982 +2587,22 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-1</v>
+        <v>-0.989</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.024</v>
+        <v>-0.013</v>
       </c>
       <c r="T31" t="n">
-        <v>0.063</v>
+        <v>-0.149</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SPY230628P00442000</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>442</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SPY230628P00443000</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>443</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SPY230628P00444000</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>444</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>26</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SPY230628P00445000</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>445</v>
-      </c>
-      <c r="E35" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>19</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SPY230628P00446000</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
-        <v>446</v>
-      </c>
-      <c r="E36" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SPY230628P00448000</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>448</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>21</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SPY230628P00450000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>450</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>120</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SPY230628P00452000</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>452</v>
-      </c>
-      <c r="E39" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>556</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SPY230628P00456000</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>456</v>
-      </c>
-      <c r="E40" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SPY230628P00458000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>458</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SPY230628P00464000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>464</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SPY230628P00468000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>468</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SPY230628P00470000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>470</v>
-      </c>
-      <c r="E44" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SPY230628P00480000</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>480</v>
-      </c>
-      <c r="E45" t="n">
-        <v>40.44</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>270</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/puts_dol_gammas.xlsx
+++ b/puts_dol_gammas.xlsx
@@ -708,7 +708,7 @@
         <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.414068359375</v>
+        <v>0.42188078125</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.32813171875</v>
+        <v>0.335944140625</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -825,28 +825,28 @@
         <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="J6" t="n">
-        <v>1029</v>
+        <v>1067</v>
       </c>
       <c r="K6" t="n">
         <v>11785</v>
       </c>
       <c r="L6" t="n">
-        <v>0.210945390625</v>
+        <v>0.22852333984375</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="U6" t="n">
         <v>-0</v>
@@ -897,10 +897,10 @@
         <v>0.02</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H7" t="n">
         <v>-0.04</v>
@@ -909,13 +909,13 @@
         <v>-66.66667</v>
       </c>
       <c r="J7" t="n">
-        <v>1233</v>
+        <v>1776</v>
       </c>
       <c r="K7" t="n">
         <v>1599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.16211775390625</v>
+        <v>0.179695703125</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0.001</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="U7" t="n">
-        <v>-69673.19459838867</v>
+        <v>-69778.76334228516</v>
       </c>
     </row>
     <row r="8">
@@ -966,10 +966,10 @@
         <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
         <v>-0.03</v>
@@ -978,13 +978,13 @@
         <v>-50</v>
       </c>
       <c r="J8" t="n">
-        <v>3213</v>
+        <v>3637</v>
       </c>
       <c r="K8" t="n">
         <v>3359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.145516357421875</v>
+        <v>0.1601646484375</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="R8" t="n">
         <v>0.001</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.008</v>
+        <v>-0.011</v>
       </c>
       <c r="U8" t="n">
-        <v>-146361.6389343262</v>
+        <v>-293166.8118408203</v>
       </c>
     </row>
     <row r="9">
@@ -1047,13 +1047,13 @@
         <v>-66.66667</v>
       </c>
       <c r="J9" t="n">
-        <v>5373</v>
+        <v>7571</v>
       </c>
       <c r="K9" t="n">
         <v>4292</v>
       </c>
       <c r="L9" t="n">
-        <v>0.12500875</v>
+        <v>0.133797724609375</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="U9" t="n">
-        <v>-561045.6870849609</v>
+        <v>-561895.7828613281</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1101,7 @@
         <v>429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F10" t="n">
         <v>0.04</v>
@@ -1110,19 +1110,19 @@
         <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-54.545456</v>
+        <v>-63.636364</v>
       </c>
       <c r="J10" t="n">
-        <v>3068</v>
+        <v>3823</v>
       </c>
       <c r="K10" t="n">
         <v>4485</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11524322265625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="R10" t="n">
         <v>0.003</v>
@@ -1153,7 +1153,7 @@
         <v>-0.017</v>
       </c>
       <c r="U10" t="n">
-        <v>-977124.0705871582</v>
+        <v>-782883.686279297</v>
       </c>
     </row>
     <row r="11">
@@ -1170,28 +1170,28 @@
         <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>-50</v>
+        <v>-64.28572</v>
       </c>
       <c r="J11" t="n">
-        <v>22011</v>
+        <v>25580</v>
       </c>
       <c r="K11" t="n">
         <v>32531</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1079190771484375</v>
+        <v>0.110360458984375</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.029</v>
+        <v>-0.018</v>
       </c>
       <c r="U11" t="n">
-        <v>-14174726.0380249</v>
+        <v>-8517722.139916994</v>
       </c>
     </row>
     <row r="12">
@@ -1239,28 +1239,28 @@
         <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09999999399999999</v>
+        <v>-0.13</v>
       </c>
       <c r="I12" t="n">
-        <v>-52.631577</v>
+        <v>-68.42104999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>26320</v>
+        <v>28590</v>
       </c>
       <c r="K12" t="n">
         <v>5431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1001066552734375</v>
+        <v>0.102548037109375</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-0.018</v>
+        <v>-0.01</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.048</v>
+        <v>-0.029</v>
       </c>
       <c r="U12" t="n">
-        <v>-4496252.206011963</v>
+        <v>-2607037.586511231</v>
       </c>
     </row>
     <row r="13">
@@ -1308,28 +1308,28 @@
         <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.120000005</v>
+        <v>-0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>-42.857143</v>
+        <v>-67.85714</v>
       </c>
       <c r="J13" t="n">
-        <v>39366</v>
+        <v>42621</v>
       </c>
       <c r="K13" t="n">
         <v>7048</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09620044433593751</v>
+        <v>0.09229423339843749</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1345,22 +1345,22 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.042</v>
+        <v>-0.017</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.041</v>
+        <v>0.02</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.095</v>
+        <v>-0.043</v>
       </c>
       <c r="U13" t="n">
-        <v>-12591196.80844727</v>
+        <v>-6151353.646484375</v>
       </c>
     </row>
     <row r="14">
@@ -1377,28 +1377,28 @@
         <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.13999999</v>
+        <v>-0.29</v>
       </c>
       <c r="I14" t="n">
-        <v>-31.818178</v>
+        <v>-65.90909000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>50020</v>
+        <v>62342</v>
       </c>
       <c r="K14" t="n">
         <v>9346</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09497975341796877</v>
+        <v>0.08643491699218751</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0.099</v>
+        <v>-0.039</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08</v>
+        <v>0.043</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04</v>
+        <v>0.019</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.182</v>
+        <v>-0.082</v>
       </c>
       <c r="U14" t="n">
-        <v>-32578645.48925781</v>
+        <v>-17537554.63068847</v>
       </c>
     </row>
     <row r="15">
@@ -1446,28 +1446,28 @@
         <v>434</v>
       </c>
       <c r="E15" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.120000005</v>
+        <v>-0.41000003</v>
       </c>
       <c r="I15" t="n">
-        <v>-18.181818</v>
+        <v>-62.121212</v>
       </c>
       <c r="J15" t="n">
-        <v>92254</v>
+        <v>101328</v>
       </c>
       <c r="K15" t="n">
         <v>6820</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09632251342773437</v>
+        <v>0.08155215332031251</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-0.208</v>
+        <v>-0.093</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.13</v>
+        <v>0.089</v>
       </c>
       <c r="R15" t="n">
-        <v>0.065</v>
+        <v>0.038</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.302</v>
+        <v>-0.149</v>
       </c>
       <c r="U15" t="n">
-        <v>-38631803.83422852</v>
+        <v>-26488001.10913086</v>
       </c>
     </row>
     <row r="16">
@@ -1515,28 +1515,28 @@
         <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="F16" t="n">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.08000003999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.163270000000001</v>
+        <v>-53.061222</v>
       </c>
       <c r="J16" t="n">
-        <v>152743</v>
+        <v>188487</v>
       </c>
       <c r="K16" t="n">
         <v>6744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09571216796875001</v>
+        <v>0.07727973510742189</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0.36</v>
+        <v>-0.204</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.171</v>
+        <v>0.161</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.386</v>
+        <v>-0.237</v>
       </c>
       <c r="U16" t="n">
-        <v>-50249405.98344728</v>
+        <v>-47382529.56650391</v>
       </c>
     </row>
     <row r="17">
@@ -1584,31 +1584,31 @@
         <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>1.39</v>
+        <v>0.75</v>
       </c>
       <c r="F17" t="n">
-        <v>1.39</v>
+        <v>0.74</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.01999998</v>
+        <v>-0.65999997</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.4184383</v>
+        <v>-46.80851</v>
       </c>
       <c r="J17" t="n">
-        <v>86099</v>
+        <v>99968</v>
       </c>
       <c r="K17" t="n">
         <v>4961</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09790941162109376</v>
+        <v>0.07239697143554688</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0.539</v>
+        <v>-0.391</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.178</v>
+        <v>0.232</v>
       </c>
       <c r="R17" t="n">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.409</v>
+        <v>-0.293</v>
       </c>
       <c r="U17" t="n">
-        <v>-38477468.34000244</v>
+        <v>-50226396.01396484</v>
       </c>
     </row>
     <row r="18">
@@ -1653,28 +1653,28 @@
         <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>2.01</v>
+        <v>1.18</v>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="G18" t="n">
-        <v>2.07</v>
+        <v>1.18</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03999996</v>
+        <v>-0.7900001</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0304549</v>
+        <v>-40.101524</v>
       </c>
       <c r="J18" t="n">
-        <v>34886</v>
+        <v>38911</v>
       </c>
       <c r="K18" t="n">
         <v>6099</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1040128662109375</v>
+        <v>0.06519489501953124</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1690,22 +1690,22 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>-0.696</v>
+        <v>-0.643</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.148</v>
+        <v>0.251</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S18" t="n">
         <v>-0.008</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.371</v>
+        <v>-0.237</v>
       </c>
       <c r="U18" t="n">
-        <v>-39331237.30495606</v>
+        <v>-66804721.75345459</v>
       </c>
     </row>
     <row r="19">
@@ -1722,28 +1722,28 @@
         <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>2.89</v>
+        <v>1.75</v>
       </c>
       <c r="F19" t="n">
-        <v>2.76</v>
+        <v>1.72</v>
       </c>
       <c r="G19" t="n">
-        <v>2.85</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24000001</v>
+        <v>-0.9000001</v>
       </c>
       <c r="I19" t="n">
-        <v>9.056603000000001</v>
+        <v>-33.96227</v>
       </c>
       <c r="J19" t="n">
-        <v>6318</v>
+        <v>7373</v>
       </c>
       <c r="K19" t="n">
         <v>3644</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1115811499023437</v>
+        <v>0.05054660400390625</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0.8070000000000001</v>
+        <v>-0.909</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.108</v>
+        <v>0.142</v>
       </c>
       <c r="R19" t="n">
-        <v>0.062</v>
+        <v>0.037</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.297</v>
+        <v>-0.037</v>
       </c>
       <c r="U19" t="n">
-        <v>-17148233.32119141</v>
+        <v>-22580914.02998047</v>
       </c>
     </row>
     <row r="20">
@@ -1791,28 +1791,28 @@
         <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="n">
-        <v>3.67</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3399999</v>
+        <v>-0.9100001</v>
       </c>
       <c r="I20" t="n">
-        <v>9.970672</v>
+        <v>-26.686218</v>
       </c>
       <c r="J20" t="n">
-        <v>1613</v>
+        <v>1882</v>
       </c>
       <c r="K20" t="n">
         <v>3675</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1355066918945313</v>
+        <v>1e-05</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1828,22 +1828,22 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>-0.85</v>
+        <v>-1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.307</v>
+        <v>0.063</v>
       </c>
       <c r="U20" t="n">
-        <v>-12169933.24035645</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -1860,28 +1860,28 @@
         <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>4.82</v>
+        <v>3.34</v>
       </c>
       <c r="F21" t="n">
-        <v>4.65</v>
+        <v>3.03</v>
       </c>
       <c r="G21" t="n">
-        <v>4.85</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>0.52</v>
+        <v>-0.9600003</v>
       </c>
       <c r="I21" t="n">
-        <v>12.093022</v>
+        <v>-22.325588</v>
       </c>
       <c r="J21" t="n">
-        <v>690</v>
+        <v>1930</v>
       </c>
       <c r="K21" t="n">
         <v>277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1579674047851563</v>
+        <v>1e-05</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-0.877</v>
+        <v>-1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.31</v>
+        <v>0.063</v>
       </c>
       <c r="U21" t="n">
-        <v>-675904.0616699219</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -1929,28 +1929,28 @@
         <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>5.68</v>
+        <v>4.34</v>
       </c>
       <c r="F22" t="n">
-        <v>5.64</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>5.85</v>
+        <v>4.59</v>
       </c>
       <c r="H22" t="n">
-        <v>0.42999983</v>
+        <v>-0.9099998500000001</v>
       </c>
       <c r="I22" t="n">
-        <v>8.190474</v>
+        <v>-17.33333</v>
       </c>
       <c r="J22" t="n">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K22" t="n">
         <v>551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1794515649414062</v>
+        <v>1e-05</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1966,22 +1966,22 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>-0.897</v>
+        <v>-1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.31</v>
+        <v>0.063</v>
       </c>
       <c r="U22" t="n">
-        <v>-1056383.320727539</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -1998,28 +1998,28 @@
         <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="F23" t="n">
-        <v>6.61</v>
+        <v>4.86</v>
       </c>
       <c r="G23" t="n">
-        <v>6.86</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0.52999973</v>
+        <v>0.32999992</v>
       </c>
       <c r="I23" t="n">
-        <v>8.702786</v>
+        <v>5.418718</v>
       </c>
       <c r="J23" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K23" t="n">
         <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2014240014648437</v>
+        <v>1e-05</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -2035,22 +2035,22 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>-0.91</v>
+        <v>-1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.316</v>
+        <v>0.064</v>
       </c>
       <c r="U23" t="n">
-        <v>-16775.59719848633</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -2070,10 +2070,10 @@
         <v>7.31</v>
       </c>
       <c r="F24" t="n">
-        <v>7.58</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>7.82</v>
+        <v>6.59</v>
       </c>
       <c r="H24" t="n">
         <v>0.5900001499999999</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2163164306640625</v>
+        <v>1e-05</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-0.926</v>
+        <v>-1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.287</v>
+        <v>0.064</v>
       </c>
       <c r="U24" t="n">
-        <v>-2440.086865234375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -2139,10 +2139,10 @@
         <v>8.67</v>
       </c>
       <c r="F25" t="n">
-        <v>8.609999999999999</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>8.779999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="H25" t="n">
         <v>0.9200001</v>
@@ -2157,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2299881689453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2173,22 +2173,22 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-0.9389999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.256</v>
+        <v>0.064</v>
       </c>
       <c r="U25" t="n">
-        <v>-10021.78533935547</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -2208,10 +2208,10 @@
         <v>9.09</v>
       </c>
       <c r="F26" t="n">
-        <v>9.68</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>9.85</v>
+        <v>8.59</v>
       </c>
       <c r="H26" t="n">
         <v>0.11000061</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.258796474609375</v>
+        <v>1e-05</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -2242,22 +2242,22 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-0.9379999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.3</v>
+        <v>0.064</v>
       </c>
       <c r="U26" t="n">
-        <v>-915.0325744628907</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -2277,10 +2277,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>10.63</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>10.89</v>
+        <v>9.77</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2832102929687499</v>
+        <v>0.18946123046875</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2311,22 +2311,22 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.985</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.018</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.027</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S27" t="n">
         <v>-0.012</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.323</v>
+        <v>-0.017</v>
       </c>
       <c r="U27" t="n">
-        <v>-784.3136352539062</v>
+        <v>-392.7510131835937</v>
       </c>
     </row>
     <row r="28">
@@ -2346,10 +2346,10 @@
         <v>12.46</v>
       </c>
       <c r="F28" t="n">
-        <v>11.63</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>11.85</v>
+        <v>10.59</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2956613403320312</v>
+        <v>1e-05</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>-0.949</v>
+        <v>-1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>-0.012</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.292</v>
+        <v>0.064</v>
       </c>
       <c r="U28" t="n">
         <v>-0</v>
@@ -2415,10 +2415,10 @@
         <v>15.88</v>
       </c>
       <c r="F29" t="n">
-        <v>12.63</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>12.85</v>
+        <v>11.59</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3137275659179687</v>
+        <v>1e-05</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -2449,19 +2449,19 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-0.953</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>-0.012</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.289</v>
+        <v>0.064</v>
       </c>
       <c r="U29" t="n">
         <v>-0</v>
@@ -2484,16 +2484,16 @@
         <v>15.05</v>
       </c>
       <c r="F30" t="n">
-        <v>14.61</v>
+        <v>12.94</v>
       </c>
       <c r="G30" t="n">
-        <v>14.86</v>
+        <v>13.75</v>
       </c>
       <c r="H30" t="n">
         <v>1.4000006</v>
       </c>
       <c r="I30" t="n">
-        <v>10.256415</v>
+        <v>10.256414</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3503482934570312</v>
+        <v>0.242195078125</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -2518,22 +2518,22 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-0.959</v>
+        <v>-0.992</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="S30" t="n">
         <v>-0.012</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.287</v>
+        <v>0.003</v>
       </c>
       <c r="U30" t="n">
-        <v>-958.6055541992187</v>
+        <v>-349.11201171875</v>
       </c>
     </row>
     <row r="31">
@@ -2553,10 +2553,10 @@
         <v>34.42</v>
       </c>
       <c r="F31" t="n">
-        <v>34.61</v>
+        <v>32.78</v>
       </c>
       <c r="G31" t="n">
-        <v>34.86</v>
+        <v>33.81</v>
       </c>
       <c r="H31" t="n">
         <v>-0.5600014</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6303747900390625</v>
+        <v>0.5293015820312501</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2587,19 +2587,19 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-0.989</v>
+        <v>-0.996</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="R31" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="S31" t="n">
         <v>-0.013</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.149</v>
+        <v>-0.003</v>
       </c>
       <c r="U31" t="n">
         <v>-0</v>
